--- a/hybris-nao-tests/src/main/resources/QuickOrderPageInvalidTest.xlsx
+++ b/hybris-nao-tests/src/main/resources/QuickOrderPageInvalidTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project2\selenium\hybNov62017\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajkumars\git\IRWWebservice\hybris-nao-tests\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D214EF51-44E0-4B70-9197-3CABD4DA3CE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC41EA75-B5D4-49F0-8DDF-E43BCED73BAD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="600" windowWidth="19440" windowHeight="7470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QuickOrderPageInvalidTest" sheetId="18" r:id="rId1"/>
@@ -133,19 +133,19 @@
     <t>Bin2$%^</t>
   </si>
   <si>
-    <t>Bobcat1234</t>
-  </si>
-  <si>
     <t>rajkumars</t>
   </si>
   <si>
-    <t>bobcat1234</t>
-  </si>
-  <si>
-    <t>Welcome@3</t>
-  </si>
-  <si>
     <t>Welcome2</t>
+  </si>
+  <si>
+    <t>bobcat12</t>
+  </si>
+  <si>
+    <t>Welcome1</t>
+  </si>
+  <si>
+    <t>Welcome3</t>
   </si>
 </sst>
 </file>
@@ -1179,10 +1179,10 @@
         <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>14</v>
@@ -1191,10 +1191,10 @@
         <v>14</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>15</v>
@@ -1206,10 +1206,10 @@
         <v>13</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>14</v>
@@ -1229,10 +1229,10 @@
         <v>39</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>39</v>
@@ -1256,7 +1256,7 @@
         <v>39</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
